--- a/xlsx/演化_intext.xlsx
+++ b/xlsx/演化_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="896">
   <si>
     <t>演化</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>政策_政策_管理_演化</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E8%B5%B7%E6%BA%90%E7%9A%84%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>共同起源的證據</t>
+    <t>共同起源的证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BD%93%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E8%AE%8A</t>
   </si>
   <si>
-    <t>突變</t>
+    <t>突变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E9%80%89%E6%8B%A9</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A9%E6%87%89</t>
   </si>
   <si>
-    <t>適應</t>
+    <t>适应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E6%BC%82%E8%AE%8A</t>
   </si>
   <si>
-    <t>遺傳漂變</t>
+    <t>遗传漂变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B5%81</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BB%E5%B0%84%E9%81%A9%E6%87%89</t>
   </si>
   <si>
-    <t>輻射適應</t>
+    <t>辐射适应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E6%BC%94%E5%8C%96</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E7%95%B0%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>趨異演化</t>
+    <t>趋异演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8B%E5%90%8C%E6%BC%94%E5%8C%96</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>演化證據</t>
+    <t>演化证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -167,61 +167,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%B6%9C%E5%90%88%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>現代綜合理論</t>
+    <t>现代综合理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96%E7%9A%84%E7%A4%BE%E6%9C%83%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>演化論的社會影響</t>
+    <t>演化论的社会影响</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化生物學</t>
+    <t>演化生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生物學</t>
+    <t>社会生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化人類學</t>
+    <t>演化人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態遺傳學</t>
+    <t>生态遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%99%BC%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化發育生物學</t>
+    <t>演化发育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化語言學</t>
+    <t>演化语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>人類演化</t>
+    <t>人类演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E6%BC%94%E5%8C%96</t>
@@ -245,31 +245,28 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>人工選擇</t>
+    <t>人工选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>群體遺傳學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統分類學</t>
+    <t>系统分类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E7%8B%80</t>
   </si>
   <si>
-    <t>性狀</t>
+    <t>性状</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E7%BE%A4</t>
   </si>
   <si>
-    <t>種群</t>
+    <t>种群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E9%A2%91%E7%8E%87</t>
@@ -287,9 +284,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%8F%98</t>
   </si>
   <si>
-    <t>突变</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%81%E5%BE%99</t>
   </si>
   <si>
@@ -299,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%B0%B4%E5%B9%B3%E8%BD%89%E7%A7%BB</t>
   </si>
   <si>
-    <t>基因水平轉移</t>
+    <t>基因水平转移</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>物種</t>
+    <t>物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9</t>
@@ -329,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%BE%8C%E5%85%B1%E5%90%8C%E7%A5%96%E5%85%88</t>
   </si>
   <si>
-    <t>最後共同祖先</t>
+    <t>最后共同祖先</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BE%B3</t>
@@ -353,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E7%A8%AE</t>
   </si>
   <si>
-    <t>絕種</t>
+    <t>绝种</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Evolutionary_history_of_life</t>
@@ -365,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E6%85%8B%E5%AD%B8_(%E7%94%9F%E7%89%A9%E5%AD%B8)</t>
   </si>
   <si>
-    <t>形態學 (生物學)</t>
+    <t>形态学 (生物学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNA%E6%B8%AC%E5%BA%8F</t>
   </si>
   <si>
-    <t>DNA測序</t>
+    <t>DNA测序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%BA%90</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E7%99%BC%E7%94%9F%E6%A8%B9</t>
   </si>
   <si>
-    <t>系統發生樹</t>
+    <t>系统发生树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E7%9F%B3</t>
@@ -419,19 +413,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B4%B0%E8%83%9E%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>多細胞生物</t>
+    <t>多细胞生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E9%9A%94%E7%A6%BB</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理論</t>
+    <t>理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E5%B0%94%E6%96%AF%C2%B7%E8%BE%BE%E5%B0%94%E6%96%87</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E7%BE%85%E7%B4%A0%C2%B7%E8%8F%AF%E8%90%8A%E5%A3%AB</t>
   </si>
   <si>
-    <t>阿弗雷德·羅素·華萊士</t>
+    <t>阿弗雷德·罗素·华莱士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A7%8D%E8%B5%B7%E6%BA%90</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A9%E6%87%89%E5%BA%A6</t>
   </si>
   <si>
-    <t>適應度</t>
+    <t>适应度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%8A%9B</t>
@@ -503,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E7%88%BE</t>
   </si>
   <si>
-    <t>孟德爾</t>
+    <t>孟德尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0</t>
@@ -545,13 +539,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E7%94%9F%E7%89%A9%E5%AD%A6</t>
   </si>
   <si>
-    <t>演化生物学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理生物學</t>
+    <t>数理生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%AF%9F%E6%80%A7%E7%A0%94%E7%A9%B6</t>
@@ -563,25 +554,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%A3%B2%E5%9C%B0</t>
   </si>
   <si>
-    <t>動物棲地</t>
+    <t>动物栖地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>實驗室</t>
+    <t>实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>實驗</t>
+    <t>实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
@@ -599,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命科學</t>
+    <t>生命科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%B4%A8%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -623,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算機科學</t>
+    <t>计算机科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%90%9B%E6%AD%A6</t>
   </si>
   <si>
-    <t>馬君武</t>
+    <t>马君武</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AF%AD</t>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製漢語</t>
+    <t>和制汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%85%8B%E8%8E%B1%E4%BF%AE</t>
@@ -695,13 +686,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%85%8B%E8%90%8A%E4%BF%AE</t>
   </si>
   <si>
-    <t>盧克萊修</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%80%A7%E8%AB%96</t>
   </si>
   <si>
-    <t>物性論</t>
+    <t>物性论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
@@ -713,25 +701,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E5%9E%8B%E8%AB%96</t>
   </si>
   <si>
-    <t>理型論</t>
+    <t>理型论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>唯心主義</t>
+    <t>唯心主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E7%9A%84%E8%AB%96</t>
   </si>
   <si>
-    <t>目的論</t>
+    <t>目的论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Divinity</t>
@@ -749,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -773,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E6%9E%97%E5%A5%88</t>
   </si>
   <si>
-    <t>卡爾·林奈</t>
+    <t>卡尔·林奈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%8E%86%E5%8F%B2</t>
@@ -785,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%C2%B7%E8%8E%AB%E4%BD%A9%E7%88%BE%E8%92%82</t>
   </si>
   <si>
-    <t>皮埃爾·莫佩爾蒂</t>
+    <t>皮埃尔·莫佩尔蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%B8%B0</t>
@@ -797,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E6%96%AF%E8%AC%A8%E6%96%AF%C2%B7%E9%81%94%E7%88%BE%E6%96%87</t>
   </si>
   <si>
-    <t>伊拉斯謨斯·達爾文</t>
+    <t>伊拉斯谟斯·达尔文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%92%E6%B8%A9%E5%8A%A8%E7%89%A9</t>
@@ -821,19 +809,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%99%BC%E7%94%9F</t>
   </si>
   <si>
-    <t>自然發生</t>
+    <t>自然发生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A6%AC%E5%85%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>拉馬克主義</t>
+    <t>拉马克主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E5%B1%85%E7%B6%AD%E8%91%89</t>
   </si>
   <si>
-    <t>喬治·居維葉</t>
+    <t>乔治·居维叶</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/William_Paley</t>
@@ -857,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/On_the_Tendency_of_Species_to_form_Varieties;_and_on_the_Perpetuation_of_Varieties_and_Species_by_Natural_Means_of_Selection</t>
@@ -869,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E6%9E%97%E5%A5%88%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>倫敦林奈學會</t>
+    <t>伦敦林奈学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>達爾文主義</t>
+    <t>达尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%83%A5%E9%BB%8E</t>
@@ -887,19 +875,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>古生物學</t>
+    <t>古生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較解剖學</t>
+    <t>比较解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%BF</t>
@@ -911,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%94%9F%E8%AB%96</t>
   </si>
   <si>
-    <t>泛生論</t>
+    <t>泛生论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E7%88%BE%E9%81%BA%E5%82%B3%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>孟德爾遺傳定律</t>
+    <t>孟德尔遗传定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E9%AD%8F%E6%96%AF%E6%9B%BC</t>
@@ -971,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E6%A0%B8</t>
   </si>
   <si>
-    <t>細胞核</t>
+    <t>细胞核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E8%B2%BB%E9%9B%AA</t>
   </si>
   <si>
-    <t>羅納德·費雪</t>
+    <t>罗纳德·费雪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6%E5%AE%B6</t>
@@ -995,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E6%B8%A1%E5%8C%96%E7%9F%B3</t>
   </si>
   <si>
-    <t>過渡化石</t>
+    <t>过渡化石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>發育生物學</t>
+    <t>发育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%9D%9C%E5%A8%81%C2%B7%E6%B2%83%E6%A3%AE</t>
@@ -1025,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>分子生物學</t>
+    <t>分子生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E5%9E%8B</t>
@@ -1037,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E7%8F%BE%E5%9E%8B</t>
   </si>
   <si>
-    <t>表現型</t>
+    <t>表现型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%A5%A5%E5%A4%9A%E8%A5%BF%C2%B7%E5%A4%9A%E5%B8%83%E7%84%B6%E6%96%AF%E5%9F%BA</t>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E7%9A%84%E4%B8%80%E5%88%87%E9%83%BD%E6%B2%92%E6%9C%89%E9%81%93%E7%90%86%EF%BC%8C%E9%99%A4%E9%9D%9E%E6%94%BE%E5%9C%A8%E6%BC%94%E5%8C%96%E7%9A%84%E5%85%89%E8%8A%92%E4%B9%8B%E4%B8%8B</t>
   </si>
   <si>
-    <t>生物學的一切都沒有道理，除非放在演化的光芒之下</t>
+    <t>生物学的一切都没有道理，除非放在演化的光芒之下</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biological_organisation</t>
@@ -1061,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%AB%E6%B0%AE%E9%B9%BC%E5%9F%BA</t>
   </si>
   <si>
-    <t>含氮鹼基</t>
+    <t>含氮碱基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E8%9E%BA%E6%97%8B</t>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>遺傳學</t>
+    <t>遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E7%9D%9B%E8%89%B2%E5%BD%A9</t>
@@ -1085,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E7%B5%84</t>
   </si>
   <si>
-    <t>基因組</t>
+    <t>基因组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E6%B5%B4</t>
@@ -1133,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E8%A7%80%E9%81%BA%E5%82%B3%E5%AD%B8</t>
   </si>
   <si>
-    <t>表觀遺傳學</t>
+    <t>表观遗传学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNA%E7%94%B2%E5%9F%BA%E5%8C%96</t>
@@ -1145,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8A%E6%AF%92%E9%AB%94</t>
   </si>
   <si>
-    <t>朊毒體</t>
+    <t>朊毒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%B3%96%E6%A0%B8%E9%85%B8</t>
@@ -1169,13 +1157,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E6%80%A7%E5%9F%BA%E5%9B%A0</t>
   </si>
   <si>
-    <t>隱性基因</t>
+    <t>隐性基因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%AE%E5%88%80%E5%9E%8B%E7%B4%85%E8%A1%80%E7%90%83%E7%96%BE%E7%97%85</t>
   </si>
   <si>
-    <t>鐮刀型紅血球疾病</t>
+    <t>镰刀型红血球疾病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%9F%E7%96%BE</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9E%E7%AA%81%E8%AE%8A</t>
   </si>
   <si>
-    <t>點突變</t>
+    <t>点突变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E5%BA%A7%E5%AD%90</t>
@@ -1205,19 +1193,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E7%B5%84</t>
   </si>
   <si>
-    <t>重組</t>
+    <t>重组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%80%A7%E7%94%9F%E6%AE%96</t>
   </si>
   <si>
-    <t>無性生殖</t>
+    <t>无性生殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%BA%90%E6%9F%93%E8%89%B2%E9%AB%94</t>
   </si>
   <si>
-    <t>同源染色體</t>
+    <t>同源染色体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%8F%E6%95%B0%E5%88%86%E8%A3%82</t>
@@ -1229,25 +1217,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E9%87%8D%E7%B5%84</t>
   </si>
   <si>
-    <t>遺傳重組</t>
+    <t>遗传重组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%93%E8%89%B2%E9%AB%94%E4%BA%92%E6%8F%9B</t>
   </si>
   <si>
-    <t>染色體互換</t>
+    <t>染色体互换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Y%E6%9F%93%E8%89%B2%E9%AB%94</t>
   </si>
   <si>
-    <t>Y染色體</t>
+    <t>Y染色体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%95%88%E7%A8%AE%E7%BE%A4%E5%A4%A7%E5%B0%8F</t>
   </si>
   <si>
-    <t>有效種群大小</t>
+    <t>有效种群大小</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hill%E2%80%93Robertson_effect</t>
@@ -1265,37 +1253,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>微觀演化</t>
+    <t>微观演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>宏觀演化</t>
+    <t>宏观演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E6%AD%A6%E7%B4%80</t>
   </si>
   <si>
-    <t>寒武紀</t>
+    <t>寒武纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E5%8F%A4%E7%88%BE%E5%BE%B7</t>
   </si>
   <si>
-    <t>史蒂芬·古爾德</t>
+    <t>史蒂芬·古尔德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%88%BE%E6%96%AF%C2%B7%E8%89%BE%E5%B4%94%E5%A5%87</t>
   </si>
   <si>
-    <t>尼爾斯·艾崔奇</t>
+    <t>尼尔斯·艾崔奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%96%B7%E5%B9%B3%E8%A1%A1</t>
   </si>
   <si>
-    <t>間斷平衡</t>
+    <t>间断平衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%BD%8D%E5%BA%8F%E5%88%97</t>
@@ -1313,13 +1301,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0%E8%AB%96</t>
   </si>
   <si>
-    <t>創造論</t>
+    <t>创造论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%BD%E8%AE%8A%E8%AB%96</t>
   </si>
   <si>
-    <t>災變論</t>
+    <t>灾变论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -1349,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%95%E7%9F%B3</t>
   </si>
   <si>
-    <t>隕石</t>
+    <t>陨石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%8C%96</t>
@@ -1367,25 +1355,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E6%80%A7%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>線性關係</t>
+    <t>线性关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%B7%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>非線性</t>
+    <t>非线性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BA%A6</t>
   </si>
   <si>
-    <t>維度</t>
+    <t>维度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物地理學</t>
+    <t>生物地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%8D%AF%E6%80%A7</t>
@@ -1397,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%A5%96%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>反祖現象</t>
+    <t>反祖现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%8C%E7%97%87</t>
@@ -1409,75 +1397,66 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B3%B6%E9%95%B7%E5%96%99%E5%A4%A9%E8%9B%BE</t>
   </si>
   <si>
-    <t>馬島長喙天蛾</t>
+    <t>马岛长喙天蛾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%BA%90%E7%89%B9%E5%BE%B5</t>
   </si>
   <si>
-    <t>同源特徵</t>
+    <t>同源特征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E4%BD%8D</t>
   </si>
   <si>
-    <t>棲位</t>
+    <t>栖位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>分類學</t>
+    <t>分类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BB%E5%B0%84%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>輻射演化</t>
+    <t>辐射演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%90%8C%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>趨同演化</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%95%E8%B7%A1%E5%99%A8%E5%AE%98</t>
   </si>
   <si>
-    <t>痕跡器官</t>
+    <t>痕迹器官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E7%B3%BB%E7%99%BC%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>種系發生學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
   </si>
   <si>
-    <t>流行病學</t>
+    <t>流行病学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>選擇</t>
+    <t>选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>性選擇</t>
+    <t>性选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E7%BE%A4</t>
   </si>
   <si>
-    <t>种群</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%A6</t>
   </si>
   <si>
@@ -1493,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E9%BA%A5%E7%88%BE</t>
   </si>
   <si>
-    <t>恩斯特·麥爾</t>
+    <t>恩斯特·麦尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E4%BD%8D%E5%9F%BA%E5%9B%A0%E9%A2%91%E7%8E%87</t>
@@ -1511,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A0%E5%9F%BA%E8%80%85%E6%95%88%E5%BA%94</t>
@@ -1529,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -1547,25 +1526,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E5%81%89%E6%B0%8F%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>埃利偉氏症候群</t>
+    <t>埃利伟氏症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9F%9F%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>三域系統</t>
+    <t>三域系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>遺傳物質</t>
+    <t>遗传物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E4%BA%A4%E7%A8%AE</t>
   </si>
   <si>
-    <t>雜交種</t>
+    <t>杂交种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%86%E8%8F%8C</t>
@@ -1625,13 +1604,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%BC%82%E8%AE%8A</t>
   </si>
   <si>
-    <t>基因漂變</t>
+    <t>基因漂变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>優生學</t>
+    <t>优生学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%97</t>
@@ -1655,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B3%BD%E8%B0%B7</t>
   </si>
   <si>
-    <t>大峽谷</t>
+    <t>大峡谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%A1%E8%B0%B7</t>
@@ -1667,13 +1646,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%AD%E7%BF%81</t>
   </si>
   <si>
-    <t>白頭翁</t>
+    <t>白头翁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E9%A0%AD%E7%BF%81</t>
   </si>
   <si>
-    <t>烏頭翁</t>
+    <t>乌头翁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
@@ -1691,13 +1670,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>環物種</t>
+    <t>环物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%9C%88</t>
   </si>
   <si>
-    <t>北極圈</t>
+    <t>北极圈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%B6%E9%B8%A5</t>
@@ -1709,13 +1688,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%BB%85%E7%B5%95</t>
   </si>
   <si>
-    <t>生物滅絕</t>
+    <t>生物灭绝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E6%B8%A1%E9%B3%A5</t>
   </si>
   <si>
-    <t>渡渡鳥</t>
+    <t>渡渡鸟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%99%B6%E7%BA%AA</t>
@@ -1769,19 +1748,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E6%BC%94%E5%8C%96%E6%AD%B7%E7%A8%8B</t>
   </si>
   <si>
-    <t>生命演化歷程</t>
+    <t>生命演化历程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>地球歷史</t>
+    <t>地球历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B7%9D%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>冰川國家公園 (美國)</t>
+    <t>冰川国家公园 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%AF%92%E6%AD%A6%E7%BA%AA</t>
@@ -1793,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%96%8A%E5%B1%A4%E7%9F%B3</t>
   </si>
   <si>
-    <t>疊層石</t>
+    <t>叠层石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E8%B5%B7%E6%BA%90</t>
@@ -1817,13 +1796,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8B%92-%E5%B0%A4%E9%87%8C%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>米勒-尤里實驗</t>
+    <t>米勒-尤里实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%B0%A4%E9%87%8C</t>
   </si>
   <si>
-    <t>哈羅德·尤里</t>
+    <t>哈罗德·尤里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A8</t>
@@ -1883,25 +1862,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%85%B1%E7%94%9F</t>
   </si>
   <si>
-    <t>內共生</t>
+    <t>内共生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B3%AA%E5%B9%B4%E4%BB%A3</t>
   </si>
   <si>
-    <t>地質年代</t>
+    <t>地质年代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8F%8C</t>
   </si>
   <si>
-    <t>藍菌</t>
+    <t>蓝菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E</t>
   </si>
   <si>
-    <t>藻類</t>
+    <t>藻类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%84%8A%E6%A4%8E%E5%8A%A8%E7%89%A9</t>
@@ -1949,7 +1928,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E9%AA%A8%E9%AD%9A</t>
   </si>
   <si>
-    <t>硬骨魚</t>
+    <t>硬骨鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E6%A0%96%E5%8A%A8%E7%89%A9</t>
@@ -1985,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E8%8A%B1%E6%A4%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>開花植物</t>
+    <t>开花植物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E4%BB%A3</t>
@@ -2033,7 +2012,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>設計</t>
+    <t>设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E5%9B%A0</t>
@@ -2045,19 +2024,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%94%90%E7%B4%8D%C2%B7%E6%BC%A2%E5%BD%8C%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>威廉·唐納·漢彌爾頓</t>
+    <t>威廉·唐纳·汉弥尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>親屬選擇</t>
+    <t>亲属选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E8%8F%AF%C2%B7%E5%A8%81%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>艾德華·威爾森</t>
+    <t>艾德华·威尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%A7%81%E7%9A%84%E5%9F%BA%E5%9B%A0</t>
@@ -2087,7 +2066,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
@@ -2099,13 +2078,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -2123,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E8%8C%B2%E7%B1%B3%E5%8B%92%E8%A8%B4%E5%A4%9A%E4%BD%9B%E5%AD%B8%E5%8D%80%E6%A1%88</t>
   </si>
   <si>
-    <t>奇茲米勒訴多佛學區案</t>
+    <t>奇兹米勒诉多佛学区案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%98</t>
@@ -2141,13 +2120,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%B0%8E%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>神導演化論</t>
+    <t>神导演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
-    <t>聖經</t>
+    <t>圣经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -2273,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A7%91%E5%AD%B8%E4%BF%83%E9%80%B2%E6%9C%83</t>
   </si>
   <si>
-    <t>美國科學促進會</t>
+    <t>美国科学促进会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/University_of_Leeds</t>
@@ -2363,19 +2342,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%AD%8C%E5%8A%87</t>
   </si>
   <si>
-    <t>太空歌劇</t>
+    <t>太空歌剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>宇宙戰爭</t>
+    <t>宇宙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E8%90%BD%E7%9A%84%E4%B8%96%E7%95%8C</t>
@@ -2417,7 +2396,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E5%8C%96</t>
   </si>
   <si>
-    <t>進化</t>
+    <t>进化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9B%E5%8D%9A%E6%9C%8B%E5%85%8B</t>
@@ -2441,7 +2420,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%85%89%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>時光旅行</t>
+    <t>时光旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%A1%8C%E4%B8%96%E7%95%8C</t>
@@ -2453,7 +2432,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E7%94%9F</t>
   </si>
   <si>
-    <t>轉生</t>
+    <t>转生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%8F%A4%E6%9C%AA%E6%9D%A5%E4%B8%BB%E4%B9%89</t>
@@ -2465,7 +2444,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>宇宙空間</t>
+    <t>宇宙空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F</t>
@@ -2477,19 +2456,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E7%B3%BB</t>
   </si>
   <si>
-    <t>太陽系</t>
+    <t>太阳系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD</t>
   </si>
   <si>
-    <t>太陽</t>
+    <t>太阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>銀河系</t>
+    <t>银河系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B4%9E</t>
@@ -2519,7 +2498,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C%E5%99%A8</t>
   </si>
   <si>
-    <t>太空飛行器</t>
+    <t>太空飞行器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
@@ -2543,13 +2522,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AA%E9%87%8F%E6%8A%95%E5%B0%84%E5%99%A8</t>
   </si>
   <si>
-    <t>質量投射器</t>
+    <t>质量投射器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%9B%BB%E6%A2%AF</t>
   </si>
   <si>
-    <t>太空電梯</t>
+    <t>太空电梯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E6%A3%AE%E7%90%83</t>
@@ -2567,13 +2546,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%98%8E%E9%A3%9B%E8%A1%8C%E7%89%A9%E9%AB%94</t>
   </si>
   <si>
-    <t>不明飛行物體</t>
+    <t>不明飞行物体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6</t>
   </si>
   <si>
-    <t>腦</t>
+    <t>脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E6%B3%95</t>
@@ -2585,7 +2564,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>意識</t>
+    <t>意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E4%BA%BA%E6%A0%BC</t>
@@ -2621,13 +2600,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>生化危機</t>
+    <t>生化危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>納米科技</t>
+    <t>纳米科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%AA%E7%89%A9</t>
@@ -2639,19 +2618,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E4%BE%86%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>未來生物</t>
+    <t>未来生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E5%B1%8D</t>
   </si>
   <si>
-    <t>活屍</t>
+    <t>活尸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>機器人</t>
+    <t>机器人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BF%E7%94%9F%E4%BA%BA</t>
@@ -2669,37 +2648,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
+    <t>生物化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E5%8A%9B%E6%9C%8D</t>
   </si>
   <si>
-    <t>動力服</t>
+    <t>动力服</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A7%AD%E5%AE%A2</t>
   </si>
   <si>
-    <t>駭客</t>
+    <t>骇客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E5%AF%A6%E5%A2%83</t>
   </si>
   <si>
-    <t>虛擬實境</t>
+    <t>虚拟实境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%85%8B</t>
@@ -2711,7 +2690,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E8%88%B0</t>
@@ -2723,7 +2702,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E5%BD%A2</t>
   </si>
   <si>
-    <t>隱形</t>
+    <t>隐形</t>
   </si>
 </sst>
 </file>
@@ -4225,7 +4204,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -4251,10 +4230,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -4280,10 +4259,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>28</v>
@@ -4309,10 +4288,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -4338,10 +4317,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>5</v>
@@ -4367,10 +4346,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>16</v>
@@ -4396,10 +4375,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
         <v>6</v>
@@ -4425,10 +4404,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4454,10 +4433,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>11</v>
@@ -4483,10 +4462,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>102</v>
@@ -4512,10 +4491,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>143</v>
@@ -4570,10 +4549,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>20</v>
@@ -4599,10 +4578,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>30</v>
@@ -4628,10 +4607,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4657,10 +4636,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4686,10 +4665,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4715,10 +4694,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4744,10 +4723,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -4773,10 +4752,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4802,10 +4781,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4831,10 +4810,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4860,10 +4839,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>15</v>
@@ -4889,10 +4868,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4918,10 +4897,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4947,10 +4926,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>13</v>
@@ -4976,10 +4955,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5005,10 +4984,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5034,10 +5013,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5063,10 +5042,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5092,10 +5071,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -5121,10 +5100,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>13</v>
@@ -5150,10 +5129,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5208,10 +5187,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>31</v>
@@ -5237,10 +5216,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -5266,10 +5245,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5295,10 +5274,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>10</v>
@@ -5324,10 +5303,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5353,10 +5332,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5382,10 +5361,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5411,10 +5390,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5440,10 +5419,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5469,10 +5448,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5527,10 +5506,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F85" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G85" t="n">
         <v>30</v>
@@ -5585,10 +5564,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>8</v>
@@ -5614,10 +5593,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>65</v>
@@ -5643,10 +5622,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>135</v>
@@ -5672,10 +5651,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5701,10 +5680,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5730,10 +5709,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5759,10 +5738,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5788,10 +5767,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5817,10 +5796,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5846,10 +5825,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5875,10 +5854,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5904,10 +5883,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -5933,10 +5912,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -5962,10 +5941,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5991,10 +5970,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6020,10 +5999,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6049,10 +6028,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6078,10 +6057,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -6107,10 +6086,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -6136,10 +6115,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6165,10 +6144,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6194,10 +6173,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G108" t="n">
         <v>4</v>
@@ -6223,10 +6202,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6252,10 +6231,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6281,10 +6260,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6310,10 +6289,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6368,10 +6347,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6397,10 +6376,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6426,10 +6405,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6455,10 +6434,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6484,10 +6463,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6513,10 +6492,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6542,10 +6521,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6571,10 +6550,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6600,10 +6579,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6629,10 +6608,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -6658,10 +6637,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6687,10 +6666,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6716,10 +6695,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6745,10 +6724,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6774,10 +6753,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>7</v>
@@ -6803,10 +6782,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6832,10 +6811,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6861,10 +6840,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6890,10 +6869,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6919,10 +6898,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6948,10 +6927,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6977,10 +6956,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7006,10 +6985,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7035,10 +7014,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -7064,10 +7043,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7093,10 +7072,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -7122,10 +7101,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7151,10 +7130,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7180,10 +7159,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7209,10 +7188,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7238,10 +7217,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7267,10 +7246,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7296,10 +7275,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7325,10 +7304,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7354,10 +7333,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7383,10 +7362,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7412,10 +7391,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7441,10 +7420,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7470,10 +7449,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G152" t="n">
         <v>29</v>
@@ -7499,10 +7478,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -7528,10 +7507,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -7557,10 +7536,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7586,10 +7565,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -7615,10 +7594,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7644,10 +7623,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7673,10 +7652,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7702,10 +7681,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7731,10 +7710,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7760,10 +7739,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7789,10 +7768,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7818,10 +7797,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7847,10 +7826,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7876,10 +7855,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7905,10 +7884,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7934,10 +7913,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7963,10 +7942,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7992,10 +7971,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -8021,10 +8000,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
         <v>5</v>
@@ -8050,10 +8029,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8079,10 +8058,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8108,10 +8087,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>6</v>
@@ -8137,10 +8116,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -8166,10 +8145,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>7</v>
@@ -8195,10 +8174,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
         <v>7</v>
@@ -8253,10 +8232,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F179" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8282,10 +8261,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8311,10 +8290,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8340,10 +8319,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8369,10 +8348,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>5</v>
@@ -8398,10 +8377,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8427,10 +8406,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>7</v>
@@ -8456,10 +8435,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8485,10 +8464,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>7</v>
@@ -8514,10 +8493,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8543,10 +8522,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8572,10 +8551,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F190" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G190" t="n">
         <v>10</v>
@@ -8601,10 +8580,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G191" t="n">
         <v>22</v>
@@ -8630,10 +8609,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G192" t="n">
         <v>11</v>
@@ -8659,10 +8638,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8688,10 +8667,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>14</v>
@@ -8717,10 +8696,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8746,10 +8725,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -8775,10 +8754,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8804,10 +8783,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8833,10 +8812,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F199" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8862,10 +8841,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G200" t="n">
         <v>8</v>
@@ -8891,10 +8870,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8920,10 +8899,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8949,10 +8928,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F203" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G203" t="n">
         <v>4</v>
@@ -8978,10 +8957,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F204" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9007,10 +8986,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F205" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9036,10 +9015,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F206" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9065,10 +9044,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F207" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9094,10 +9073,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F208" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9123,10 +9102,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F209" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9152,10 +9131,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F210" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G210" t="n">
         <v>10</v>
@@ -9181,10 +9160,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F211" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9210,10 +9189,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F212" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9239,10 +9218,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G213" t="n">
         <v>3</v>
@@ -9268,10 +9247,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -9297,10 +9276,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9326,10 +9305,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F216" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9355,10 +9334,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F217" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9384,10 +9363,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F218" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9413,10 +9392,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9442,10 +9421,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>8</v>
@@ -9471,10 +9450,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>9</v>
@@ -9500,10 +9479,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -9529,10 +9508,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9558,10 +9537,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9587,10 +9566,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>3</v>
@@ -9616,10 +9595,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9645,10 +9624,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9674,10 +9653,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>5</v>
@@ -9703,10 +9682,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9732,10 +9711,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>7</v>
@@ -9761,10 +9740,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9790,10 +9769,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9819,10 +9798,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9848,10 +9827,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9877,10 +9856,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>3</v>
@@ -9906,10 +9885,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>11</v>
@@ -9935,10 +9914,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9964,10 +9943,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9993,10 +9972,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10051,10 +10030,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -10080,10 +10059,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -10109,10 +10088,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10138,10 +10117,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -10167,10 +10146,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -10196,10 +10175,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10225,10 +10204,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10254,10 +10233,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>8</v>
@@ -10283,10 +10262,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10312,10 +10291,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>40</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10341,10 +10320,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10370,10 +10349,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="G252" t="n">
         <v>3</v>
@@ -10399,10 +10378,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10428,10 +10407,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F254" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G254" t="n">
         <v>22</v>
@@ -10457,10 +10436,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F255" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G255" t="n">
         <v>4</v>
@@ -10486,10 +10465,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G256" t="n">
         <v>35</v>
@@ -10544,10 +10523,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F258" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G258" t="n">
         <v>8</v>
@@ -10573,10 +10552,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F259" t="s">
-        <v>486</v>
+        <v>83</v>
       </c>
       <c r="G259" t="n">
         <v>27</v>
@@ -10602,10 +10581,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="F260" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="G260" t="n">
         <v>9</v>
@@ -10631,10 +10610,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>8</v>
@@ -10660,10 +10639,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="F262" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10689,10 +10668,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10718,10 +10697,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10747,10 +10726,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F265" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G265" t="n">
         <v>9</v>
@@ -10776,10 +10755,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F266" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -10805,10 +10784,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10834,10 +10813,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>7</v>
@@ -10863,10 +10842,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10892,10 +10871,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F270" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10921,10 +10900,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F271" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10950,10 +10929,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F272" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10979,10 +10958,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F273" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11008,10 +10987,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F274" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G274" t="n">
         <v>5</v>
@@ -11037,10 +11016,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F275" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G275" t="n">
         <v>7</v>
@@ -11066,10 +11045,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F276" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G276" t="n">
         <v>10</v>
@@ -11095,10 +11074,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F277" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -11124,10 +11103,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F278" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11153,10 +11132,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F279" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -11182,10 +11161,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F280" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11211,10 +11190,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F281" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G281" t="n">
         <v>3</v>
@@ -11240,10 +11219,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F282" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11269,10 +11248,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F283" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11298,10 +11277,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F284" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11327,10 +11306,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F285" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G285" t="n">
         <v>5</v>
@@ -11385,10 +11364,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F287" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -11443,10 +11422,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11472,10 +11451,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F290" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11501,10 +11480,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F291" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11530,10 +11509,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F292" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11559,10 +11538,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F293" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11588,10 +11567,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F294" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -11617,10 +11596,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F295" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -11646,10 +11625,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F296" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11675,10 +11654,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F297" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11704,10 +11683,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F298" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11733,10 +11712,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F299" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11762,10 +11741,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F300" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11791,10 +11770,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F301" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11820,10 +11799,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F302" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11878,10 +11857,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F304" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11907,10 +11886,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F305" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11936,10 +11915,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F306" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G306" t="n">
         <v>4</v>
@@ -11965,10 +11944,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F307" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11994,10 +11973,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F308" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G308" t="n">
         <v>4</v>
@@ -12023,10 +12002,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -12052,10 +12031,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -12081,10 +12060,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12110,10 +12089,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F312" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12139,10 +12118,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F313" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -12168,10 +12147,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F314" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12197,10 +12176,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F315" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -12226,10 +12205,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12255,10 +12234,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G317" t="n">
         <v>5</v>
@@ -12284,10 +12263,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G318" t="n">
         <v>3</v>
@@ -12313,10 +12292,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F319" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G319" t="n">
         <v>8</v>
@@ -12342,10 +12321,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F320" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12371,10 +12350,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F321" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12400,10 +12379,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F322" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12429,10 +12408,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F323" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12458,10 +12437,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F324" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12487,10 +12466,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F325" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12516,10 +12495,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F326" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G326" t="n">
         <v>14</v>
@@ -12545,10 +12524,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F327" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12574,10 +12553,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F328" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G328" t="n">
         <v>5</v>
@@ -12603,10 +12582,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F329" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12632,10 +12611,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F330" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12661,10 +12640,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F331" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12690,10 +12669,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F332" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12719,10 +12698,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F333" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G333" t="n">
         <v>4</v>
@@ -12748,10 +12727,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F334" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
@@ -12777,10 +12756,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F335" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12806,10 +12785,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F336" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12835,10 +12814,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F337" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12864,10 +12843,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F338" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12893,10 +12872,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F339" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12922,10 +12901,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F340" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G340" t="n">
         <v>4</v>
@@ -12951,10 +12930,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F341" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G341" t="n">
         <v>14</v>
@@ -12980,10 +12959,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F342" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13009,10 +12988,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F343" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13038,10 +13017,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F344" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13067,10 +13046,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F345" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13096,10 +13075,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F346" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13125,10 +13104,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F347" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G347" t="n">
         <v>5</v>
@@ -13154,10 +13133,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F348" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -13183,10 +13162,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F349" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13212,10 +13191,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F350" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -13241,10 +13220,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F351" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G351" t="n">
         <v>3</v>
@@ -13270,10 +13249,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F352" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13328,10 +13307,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F354" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13357,10 +13336,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F355" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13386,10 +13365,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F356" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13415,10 +13394,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F357" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G357" t="n">
         <v>5</v>
@@ -13444,10 +13423,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F358" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -13473,10 +13452,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F359" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13502,10 +13481,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F360" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13531,10 +13510,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F361" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G361" t="n">
         <v>10</v>
@@ -13560,10 +13539,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F362" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G362" t="n">
         <v>7</v>
@@ -13589,10 +13568,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F363" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13618,10 +13597,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F364" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13647,10 +13626,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F365" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13676,10 +13655,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F366" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13705,10 +13684,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F367" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13734,10 +13713,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F368" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13763,10 +13742,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F369" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13792,10 +13771,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F370" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G370" t="n">
         <v>4</v>
@@ -13821,10 +13800,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F371" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -13850,10 +13829,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F372" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13879,10 +13858,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F373" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13908,10 +13887,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F374" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13937,10 +13916,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F375" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13966,10 +13945,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F376" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13995,10 +13974,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F377" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G377" t="n">
         <v>5</v>
@@ -14024,10 +14003,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F378" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14053,10 +14032,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F379" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14082,10 +14061,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F380" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14111,10 +14090,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F381" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14140,10 +14119,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F382" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -14169,10 +14148,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F383" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14198,10 +14177,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F384" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G384" t="n">
         <v>6</v>
@@ -14227,10 +14206,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F385" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14256,10 +14235,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F386" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14285,10 +14264,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F387" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14314,10 +14293,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F388" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G388" t="n">
         <v>5</v>
@@ -14343,10 +14322,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F389" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14372,10 +14351,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F390" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14401,10 +14380,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F391" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14430,10 +14409,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F392" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14459,10 +14438,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F393" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G393" t="n">
         <v>4</v>
@@ -14488,10 +14467,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F394" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14517,10 +14496,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F395" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14546,10 +14525,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F396" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14604,10 +14583,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F398" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G398" t="n">
         <v>35</v>
@@ -14662,10 +14641,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F400" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -14691,10 +14670,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F401" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -14720,10 +14699,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F402" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G402" t="n">
         <v>3</v>
@@ -14749,10 +14728,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F403" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G403" t="n">
         <v>3</v>
@@ -14778,10 +14757,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F404" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14807,10 +14786,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F405" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14836,10 +14815,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F406" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -14865,10 +14844,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F407" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14894,10 +14873,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F408" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G408" t="n">
         <v>4</v>
@@ -14923,10 +14902,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F409" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14952,10 +14931,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F410" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14981,10 +14960,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F411" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15010,10 +14989,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F412" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15039,10 +15018,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F413" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15068,10 +15047,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F414" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G414" t="n">
         <v>3</v>
@@ -15097,10 +15076,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F415" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15126,10 +15105,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F416" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15155,10 +15134,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F417" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15184,10 +15163,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F418" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15213,10 +15192,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F419" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G419" t="n">
         <v>6</v>
@@ -15242,10 +15221,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F420" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -15271,10 +15250,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F421" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15300,10 +15279,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F422" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15329,10 +15308,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F423" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15358,10 +15337,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F424" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15387,10 +15366,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F425" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15416,10 +15395,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F426" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G426" t="n">
         <v>5</v>
@@ -15445,10 +15424,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F427" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15474,10 +15453,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F428" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15503,10 +15482,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F429" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15532,10 +15511,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F430" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15561,10 +15540,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F431" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="G431" t="n">
         <v>2</v>
@@ -15590,10 +15569,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F432" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15619,10 +15598,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F433" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15648,10 +15627,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F434" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15677,10 +15656,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F435" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15706,10 +15685,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F436" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="G436" t="n">
         <v>24</v>
@@ -15735,10 +15714,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F437" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15764,10 +15743,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F438" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15793,10 +15772,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F439" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15822,10 +15801,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F440" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15851,10 +15830,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F441" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15880,10 +15859,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F442" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15909,10 +15888,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F443" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15938,10 +15917,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F444" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15967,10 +15946,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F445" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="G445" t="n">
         <v>7</v>
@@ -15996,10 +15975,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F446" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16025,10 +16004,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F447" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="G447" t="n">
         <v>6</v>
@@ -16054,10 +16033,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F448" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16083,10 +16062,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F449" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16112,10 +16091,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F450" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16141,10 +16120,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F451" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16170,10 +16149,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F452" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16199,10 +16178,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F453" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16228,10 +16207,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F454" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16257,10 +16236,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F455" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16286,10 +16265,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F456" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16315,10 +16294,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F457" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16344,10 +16323,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F458" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16373,10 +16352,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F459" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16402,10 +16381,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F460" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -16431,10 +16410,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F461" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16460,10 +16439,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F462" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G462" t="n">
         <v>3</v>
@@ -16489,10 +16468,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F463" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16518,10 +16497,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F464" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16547,10 +16526,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F465" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16576,10 +16555,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F466" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16605,10 +16584,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F467" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16634,10 +16613,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F468" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16663,10 +16642,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="F469" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16692,10 +16671,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F470" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16721,10 +16700,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F471" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16750,10 +16729,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F472" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16779,10 +16758,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F473" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16808,10 +16787,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F474" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16837,10 +16816,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F475" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -16866,10 +16845,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F476" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16895,10 +16874,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F477" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -16924,10 +16903,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F478" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -16953,10 +16932,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="F479" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -16982,10 +16961,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F480" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -17011,10 +16990,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="F481" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17040,10 +17019,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F482" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17069,10 +17048,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F483" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17098,10 +17077,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F484" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17127,10 +17106,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F485" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17156,10 +17135,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F486" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17185,10 +17164,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F487" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>

--- a/xlsx/演化_intext.xlsx
+++ b/xlsx/演化_intext.xlsx
@@ -29,7 +29,7 @@
     <t>演化論</t>
   </si>
   <si>
-    <t>政策_政策_管理_演化</t>
+    <t>体育运动_体育运动_文化_演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E5%8C%96_(%E6%B8%B8%E6%88%8F)</t>
